--- a/pred_ohlcv/54/2019-10-21 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-21 ETC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>5320</v>
       </c>
       <c r="F2" t="n">
-        <v>15.296</v>
+        <v>99.67910000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>5333.333333333333</v>
+        <v>5333.083333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="C3" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="D3" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="E3" t="n">
-        <v>5315</v>
+        <v>5320</v>
       </c>
       <c r="F3" t="n">
-        <v>3.4511</v>
+        <v>15.296</v>
       </c>
       <c r="G3" t="n">
         <v>5333.333333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="C4" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="D4" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="E4" t="n">
-        <v>5310</v>
+        <v>5315</v>
       </c>
       <c r="F4" t="n">
-        <v>60.01</v>
+        <v>3.4511</v>
       </c>
       <c r="G4" t="n">
-        <v>5333.5</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="C5" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="D5" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="E5" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="F5" t="n">
-        <v>9.407299999999999</v>
+        <v>60.01</v>
       </c>
       <c r="G5" t="n">
-        <v>5333.583333333333</v>
+        <v>5333.5</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="C6" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="D6" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E6" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="F6" t="n">
-        <v>957.793</v>
+        <v>9.407299999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>5333.5</v>
+        <v>5333.583333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>5305</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>957.793</v>
       </c>
       <c r="G7" t="n">
-        <v>5333.416666666667</v>
+        <v>5333.5</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="C8" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="D8" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="E8" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="F8" t="n">
-        <v>28.222</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>5333.5</v>
+        <v>5333.416666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>5315</v>
       </c>
       <c r="F9" t="n">
-        <v>48.1945</v>
+        <v>28.222</v>
       </c>
       <c r="G9" t="n">
         <v>5333.5</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="C10" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="D10" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E10" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="F10" t="n">
-        <v>69.9616</v>
+        <v>48.1945</v>
       </c>
       <c r="G10" t="n">
-        <v>5333.166666666667</v>
+        <v>5333.5</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>5305</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5655</v>
+        <v>69.9616</v>
       </c>
       <c r="G11" t="n">
-        <v>5332.75</v>
+        <v>5333.166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C12" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D12" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E12" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F12" t="n">
-        <v>33.0518</v>
+        <v>0.5655</v>
       </c>
       <c r="G12" t="n">
-        <v>5332.166666666667</v>
+        <v>5332.75</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>5300</v>
       </c>
       <c r="F13" t="n">
-        <v>5.0878</v>
+        <v>33.0518</v>
       </c>
       <c r="G13" t="n">
-        <v>5331.583333333333</v>
+        <v>5332.166666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>5300</v>
       </c>
       <c r="F14" t="n">
-        <v>35.5273</v>
+        <v>5.0878</v>
       </c>
       <c r="G14" t="n">
-        <v>5331</v>
+        <v>5331.583333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>5300</v>
       </c>
       <c r="C15" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D15" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E15" t="n">
         <v>5300</v>
       </c>
       <c r="F15" t="n">
-        <v>10.7218</v>
+        <v>35.5273</v>
       </c>
       <c r="G15" t="n">
-        <v>5330.5</v>
+        <v>5331</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C16" t="n">
         <v>5305</v>
@@ -781,15 +828,18 @@
         <v>5305</v>
       </c>
       <c r="E16" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F16" t="n">
-        <v>63.8609</v>
+        <v>10.7218</v>
       </c>
       <c r="G16" t="n">
-        <v>5330</v>
+        <v>5330.5</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>5305</v>
       </c>
       <c r="F17" t="n">
-        <v>47.1654</v>
+        <v>63.8609</v>
       </c>
       <c r="G17" t="n">
-        <v>5329.25</v>
+        <v>5330</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>5305</v>
       </c>
       <c r="F18" t="n">
-        <v>4.3292</v>
+        <v>47.1654</v>
       </c>
       <c r="G18" t="n">
-        <v>5328.416666666667</v>
+        <v>5329.25</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>5305</v>
       </c>
       <c r="F19" t="n">
-        <v>92.01300000000001</v>
+        <v>4.3292</v>
       </c>
       <c r="G19" t="n">
-        <v>5327.666666666667</v>
+        <v>5328.416666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>5305</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7693</v>
+        <v>92.01300000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>5327</v>
+        <v>5327.666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>5305</v>
       </c>
       <c r="F21" t="n">
-        <v>15.4963</v>
+        <v>0.7693</v>
       </c>
       <c r="G21" t="n">
-        <v>5326.25</v>
+        <v>5327</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>5305</v>
       </c>
       <c r="C22" t="n">
-        <v>5310</v>
+        <v>5305</v>
       </c>
       <c r="D22" t="n">
-        <v>5310</v>
+        <v>5305</v>
       </c>
       <c r="E22" t="n">
         <v>5305</v>
       </c>
       <c r="F22" t="n">
-        <v>231.0613</v>
+        <v>15.4963</v>
       </c>
       <c r="G22" t="n">
-        <v>5325.333333333333</v>
+        <v>5326.25</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5315</v>
+        <v>5305</v>
       </c>
       <c r="C23" t="n">
         <v>5310</v>
       </c>
       <c r="D23" t="n">
-        <v>5315</v>
+        <v>5310</v>
       </c>
       <c r="E23" t="n">
-        <v>5310</v>
+        <v>5305</v>
       </c>
       <c r="F23" t="n">
-        <v>49.3214</v>
+        <v>231.0613</v>
       </c>
       <c r="G23" t="n">
-        <v>5324.583333333333</v>
+        <v>5325.333333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5320</v>
+        <v>5315</v>
       </c>
       <c r="C24" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="D24" t="n">
-        <v>5320</v>
+        <v>5315</v>
       </c>
       <c r="E24" t="n">
-        <v>5320</v>
+        <v>5310</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3279</v>
+        <v>49.3214</v>
       </c>
       <c r="G24" t="n">
-        <v>5324</v>
+        <v>5324.583333333333</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1009,21 +1083,24 @@
         <v>5320</v>
       </c>
       <c r="C25" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="D25" t="n">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="E25" t="n">
         <v>5320</v>
       </c>
       <c r="F25" t="n">
-        <v>235.4612</v>
+        <v>0.3279</v>
       </c>
       <c r="G25" t="n">
-        <v>5323.666666666667</v>
+        <v>5324</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5340</v>
+        <v>5320</v>
       </c>
       <c r="C26" t="n">
-        <v>5325</v>
+        <v>5330</v>
       </c>
       <c r="D26" t="n">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="E26" t="n">
-        <v>5325</v>
+        <v>5320</v>
       </c>
       <c r="F26" t="n">
-        <v>61.034765917603</v>
+        <v>235.4612</v>
       </c>
       <c r="G26" t="n">
-        <v>5323.333333333333</v>
+        <v>5323.666666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1061,21 +1141,24 @@
         <v>5340</v>
       </c>
       <c r="C27" t="n">
-        <v>5340</v>
+        <v>5325</v>
       </c>
       <c r="D27" t="n">
         <v>5340</v>
       </c>
       <c r="E27" t="n">
-        <v>5340</v>
+        <v>5325</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1127</v>
+        <v>61.034765917603</v>
       </c>
       <c r="G27" t="n">
         <v>5323.333333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="C28" t="n">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="D28" t="n">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="E28" t="n">
-        <v>5355</v>
+        <v>5340</v>
       </c>
       <c r="F28" t="n">
-        <v>52.434</v>
+        <v>0.1127</v>
       </c>
       <c r="G28" t="n">
-        <v>5323.666666666667</v>
+        <v>5323.333333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="C29" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="D29" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="E29" t="n">
-        <v>5360</v>
+        <v>5355</v>
       </c>
       <c r="F29" t="n">
-        <v>80.04259999999999</v>
+        <v>52.434</v>
       </c>
       <c r="G29" t="n">
-        <v>5324.166666666667</v>
+        <v>5323.666666666667</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="C30" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="D30" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="E30" t="n">
-        <v>5355</v>
+        <v>5360</v>
       </c>
       <c r="F30" t="n">
-        <v>62.8712</v>
+        <v>80.04259999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>5324.583333333333</v>
+        <v>5324.166666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>5355</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>62.8712</v>
       </c>
       <c r="G31" t="n">
-        <v>5325</v>
+        <v>5324.583333333333</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="C32" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="D32" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="E32" t="n">
-        <v>5340</v>
+        <v>5355</v>
       </c>
       <c r="F32" t="n">
-        <v>14.285</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>5325.166666666667</v>
+        <v>5325</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>5340</v>
       </c>
       <c r="F33" t="n">
-        <v>9.665800000000001</v>
+        <v>14.285</v>
       </c>
       <c r="G33" t="n">
-        <v>5325.333333333333</v>
+        <v>5325.166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>5340</v>
       </c>
       <c r="F34" t="n">
-        <v>25.6999</v>
+        <v>9.665800000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>5325.083333333333</v>
+        <v>5325.333333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>5340</v>
       </c>
       <c r="F35" t="n">
-        <v>119.331</v>
+        <v>25.6999</v>
       </c>
       <c r="G35" t="n">
-        <v>5324.75</v>
+        <v>5325.083333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5315</v>
+        <v>5340</v>
       </c>
       <c r="C36" t="n">
-        <v>5315</v>
+        <v>5340</v>
       </c>
       <c r="D36" t="n">
-        <v>5315</v>
+        <v>5340</v>
       </c>
       <c r="E36" t="n">
-        <v>5315</v>
+        <v>5340</v>
       </c>
       <c r="F36" t="n">
-        <v>10.02</v>
+        <v>119.331</v>
       </c>
       <c r="G36" t="n">
-        <v>5323.833333333333</v>
+        <v>5324.75</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="C37" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="D37" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E37" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="F37" t="n">
-        <v>5.1814</v>
+        <v>10.02</v>
       </c>
       <c r="G37" t="n">
-        <v>5322.75</v>
+        <v>5323.833333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,21 +1460,24 @@
         <v>5305</v>
       </c>
       <c r="C38" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D38" t="n">
         <v>5305</v>
       </c>
       <c r="E38" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="F38" t="n">
-        <v>67.58150000000001</v>
+        <v>5.1814</v>
       </c>
       <c r="G38" t="n">
-        <v>5321.583333333333</v>
+        <v>5322.75</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C39" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D39" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E39" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="F39" t="n">
-        <v>2788.2913</v>
+        <v>67.58150000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>5320.5</v>
+        <v>5321.583333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>5300</v>
+      </c>
+      <c r="C40" t="n">
         <v>5285</v>
       </c>
-      <c r="C40" t="n">
-        <v>5295</v>
-      </c>
       <c r="D40" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="E40" t="n">
         <v>5285</v>
       </c>
       <c r="F40" t="n">
-        <v>10.1361</v>
+        <v>2788.2913</v>
       </c>
       <c r="G40" t="n">
-        <v>5319.583333333333</v>
+        <v>5320.5</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>5285</v>
       </c>
       <c r="C41" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="D41" t="n">
-        <v>5285</v>
+        <v>5295</v>
       </c>
       <c r="E41" t="n">
         <v>5285</v>
       </c>
       <c r="F41" t="n">
-        <v>64.3284</v>
+        <v>10.1361</v>
       </c>
       <c r="G41" t="n">
-        <v>5318.583333333333</v>
+        <v>5319.583333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="C42" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="D42" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="E42" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="F42" t="n">
-        <v>39.3</v>
+        <v>64.3284</v>
       </c>
       <c r="G42" t="n">
-        <v>5317.666666666667</v>
+        <v>5318.583333333333</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>5290</v>
       </c>
       <c r="C43" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="D43" t="n">
         <v>5290</v>
       </c>
       <c r="E43" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="F43" t="n">
-        <v>25.6653</v>
+        <v>39.3</v>
       </c>
       <c r="G43" t="n">
-        <v>5316.75</v>
+        <v>5317.666666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="C44" t="n">
         <v>5285</v>
       </c>
       <c r="D44" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="E44" t="n">
         <v>5285</v>
       </c>
       <c r="F44" t="n">
-        <v>22.7666</v>
+        <v>25.6653</v>
       </c>
       <c r="G44" t="n">
-        <v>5316.083333333333</v>
+        <v>5316.75</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="C45" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="D45" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="E45" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="F45" t="n">
-        <v>39.3</v>
+        <v>22.7666</v>
       </c>
       <c r="G45" t="n">
-        <v>5315.25</v>
+        <v>5316.083333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>5280</v>
       </c>
       <c r="F46" t="n">
-        <v>23.75</v>
+        <v>39.3</v>
       </c>
       <c r="G46" t="n">
-        <v>5314.416666666667</v>
+        <v>5315.25</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="C47" t="n">
         <v>5280</v>
       </c>
       <c r="D47" t="n">
-        <v>5285</v>
+        <v>5280</v>
       </c>
       <c r="E47" t="n">
         <v>5280</v>
       </c>
       <c r="F47" t="n">
-        <v>41.0705</v>
+        <v>23.75</v>
       </c>
       <c r="G47" t="n">
-        <v>5313.583333333333</v>
+        <v>5314.416666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="C48" t="n">
         <v>5280</v>
       </c>
       <c r="D48" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="E48" t="n">
         <v>5280</v>
       </c>
       <c r="F48" t="n">
-        <v>45.4091</v>
+        <v>41.0705</v>
       </c>
       <c r="G48" t="n">
-        <v>5312.916666666667</v>
+        <v>5313.583333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,21 +1779,24 @@
         <v>5280</v>
       </c>
       <c r="C49" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="D49" t="n">
         <v>5280</v>
       </c>
       <c r="E49" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="F49" t="n">
-        <v>8.0852</v>
+        <v>45.4091</v>
       </c>
       <c r="G49" t="n">
-        <v>5312</v>
+        <v>5312.916666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="C50" t="n">
         <v>5275</v>
       </c>
       <c r="D50" t="n">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="E50" t="n">
         <v>5275</v>
       </c>
       <c r="F50" t="n">
-        <v>11.3881</v>
+        <v>8.0852</v>
       </c>
       <c r="G50" t="n">
-        <v>5311.083333333333</v>
+        <v>5312</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="C51" t="n">
         <v>5275</v>
       </c>
       <c r="D51" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="E51" t="n">
         <v>5275</v>
       </c>
       <c r="F51" t="n">
-        <v>105.4126</v>
+        <v>11.3881</v>
       </c>
       <c r="G51" t="n">
-        <v>5310.25</v>
+        <v>5311.083333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="C52" t="n">
         <v>5275</v>
       </c>
       <c r="D52" t="n">
-        <v>5275</v>
+        <v>5285</v>
       </c>
       <c r="E52" t="n">
         <v>5275</v>
       </c>
       <c r="F52" t="n">
-        <v>18.0572</v>
+        <v>105.4126</v>
       </c>
       <c r="G52" t="n">
-        <v>5309.333333333333</v>
+        <v>5310.25</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>5275</v>
       </c>
       <c r="C53" t="n">
-        <v>5280</v>
+        <v>5275</v>
       </c>
       <c r="D53" t="n">
-        <v>5290</v>
+        <v>5275</v>
       </c>
       <c r="E53" t="n">
         <v>5275</v>
       </c>
       <c r="F53" t="n">
-        <v>11.4718</v>
+        <v>18.0572</v>
       </c>
       <c r="G53" t="n">
-        <v>5308.5</v>
+        <v>5309.333333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5280</v>
+        <v>5275</v>
       </c>
       <c r="C54" t="n">
         <v>5280</v>
       </c>
       <c r="D54" t="n">
-        <v>5280</v>
+        <v>5290</v>
       </c>
       <c r="E54" t="n">
-        <v>5280</v>
+        <v>5275</v>
       </c>
       <c r="F54" t="n">
-        <v>500.745</v>
+        <v>11.4718</v>
       </c>
       <c r="G54" t="n">
-        <v>5308</v>
+        <v>5308.5</v>
       </c>
       <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5310</v>
+        <v>5280</v>
       </c>
       <c r="C55" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="D55" t="n">
-        <v>5315</v>
+        <v>5280</v>
       </c>
       <c r="E55" t="n">
-        <v>5310</v>
+        <v>5280</v>
       </c>
       <c r="F55" t="n">
-        <v>1882.18907911571</v>
+        <v>500.745</v>
       </c>
       <c r="G55" t="n">
-        <v>5308.25</v>
+        <v>5308</v>
       </c>
       <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="C56" t="n">
-        <v>5300</v>
+        <v>5315</v>
       </c>
       <c r="D56" t="n">
-        <v>5305</v>
+        <v>5315</v>
       </c>
       <c r="E56" t="n">
-        <v>5300</v>
+        <v>5310</v>
       </c>
       <c r="F56" t="n">
-        <v>180.1813</v>
+        <v>1882.18907911571</v>
       </c>
       <c r="G56" t="n">
-        <v>5308.083333333333</v>
+        <v>5308.25</v>
       </c>
       <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1844,18 +2014,21 @@
         <v>5300</v>
       </c>
       <c r="D57" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E57" t="n">
         <v>5300</v>
       </c>
       <c r="F57" t="n">
-        <v>30.6903</v>
+        <v>180.1813</v>
       </c>
       <c r="G57" t="n">
-        <v>5307.833333333333</v>
+        <v>5308.083333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C58" t="n">
         <v>5300</v>
       </c>
       <c r="D58" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E58" t="n">
         <v>5300</v>
       </c>
       <c r="F58" t="n">
-        <v>192.4875</v>
+        <v>30.6903</v>
       </c>
       <c r="G58" t="n">
-        <v>5307.583333333333</v>
+        <v>5307.833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C59" t="n">
         <v>5300</v>
       </c>
       <c r="D59" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E59" t="n">
         <v>5300</v>
       </c>
       <c r="F59" t="n">
-        <v>47.0592</v>
+        <v>192.4875</v>
       </c>
       <c r="G59" t="n">
-        <v>5307.416666666667</v>
+        <v>5307.583333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>5300</v>
       </c>
       <c r="F60" t="n">
-        <v>7.3327</v>
+        <v>47.0592</v>
       </c>
       <c r="G60" t="n">
-        <v>5307.083333333333</v>
+        <v>5307.416666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>5300</v>
       </c>
       <c r="F61" t="n">
-        <v>49.4175</v>
+        <v>7.3327</v>
       </c>
       <c r="G61" t="n">
-        <v>5306.75</v>
+        <v>5307.083333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>5300</v>
       </c>
       <c r="F62" t="n">
-        <v>377.2879</v>
+        <v>49.4175</v>
       </c>
       <c r="G62" t="n">
-        <v>5306.416666666667</v>
+        <v>5306.75</v>
       </c>
       <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>5300</v>
       </c>
       <c r="F63" t="n">
-        <v>194.5457</v>
+        <v>377.2879</v>
       </c>
       <c r="G63" t="n">
-        <v>5306.166666666667</v>
+        <v>5306.416666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>5300</v>
       </c>
       <c r="F64" t="n">
-        <v>4.9</v>
+        <v>194.5457</v>
       </c>
       <c r="G64" t="n">
-        <v>5306</v>
+        <v>5306.166666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>5300</v>
       </c>
       <c r="F65" t="n">
-        <v>188.6342</v>
+        <v>4.9</v>
       </c>
       <c r="G65" t="n">
-        <v>5305.75</v>
+        <v>5306</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>5300</v>
       </c>
       <c r="F66" t="n">
-        <v>378.4325</v>
+        <v>188.6342</v>
       </c>
       <c r="G66" t="n">
-        <v>5305.666666666667</v>
+        <v>5305.75</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C67" t="n">
         <v>5300</v>
       </c>
       <c r="D67" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E67" t="n">
         <v>5300</v>
       </c>
       <c r="F67" t="n">
-        <v>171.8355</v>
+        <v>378.4325</v>
       </c>
       <c r="G67" t="n">
-        <v>5305.583333333333</v>
+        <v>5305.666666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="C68" t="n">
         <v>5300</v>
       </c>
       <c r="D68" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E68" t="n">
         <v>5300</v>
       </c>
       <c r="F68" t="n">
-        <v>185.342</v>
+        <v>171.8355</v>
       </c>
       <c r="G68" t="n">
-        <v>5305.333333333333</v>
+        <v>5305.583333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>5300</v>
       </c>
       <c r="F69" t="n">
-        <v>63.064</v>
+        <v>185.342</v>
       </c>
       <c r="G69" t="n">
-        <v>5305.083333333333</v>
+        <v>5305.333333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>5300</v>
       </c>
       <c r="F70" t="n">
-        <v>259.3457</v>
+        <v>63.064</v>
       </c>
       <c r="G70" t="n">
-        <v>5305</v>
+        <v>5305.083333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C71" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="D71" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="E71" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F71" t="n">
-        <v>9.4252</v>
+        <v>259.3457</v>
       </c>
       <c r="G71" t="n">
         <v>5305</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="C72" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="D72" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="E72" t="n">
-        <v>5290</v>
+        <v>5305</v>
       </c>
       <c r="F72" t="n">
-        <v>225.007</v>
+        <v>9.4252</v>
       </c>
       <c r="G72" t="n">
-        <v>5304.833333333333</v>
+        <v>5305</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="C73" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="D73" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="E73" t="n">
-        <v>5285</v>
+        <v>5290</v>
       </c>
       <c r="F73" t="n">
-        <v>9.5</v>
+        <v>225.007</v>
       </c>
       <c r="G73" t="n">
-        <v>5304.583333333333</v>
+        <v>5304.833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2289,15 +2510,18 @@
         <v>5285</v>
       </c>
       <c r="E74" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="F74" t="n">
-        <v>563.067</v>
+        <v>9.5</v>
       </c>
       <c r="G74" t="n">
-        <v>5304.333333333333</v>
+        <v>5304.583333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="C75" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="D75" t="n">
-        <v>5290</v>
+        <v>5285</v>
       </c>
       <c r="E75" t="n">
-        <v>5290</v>
+        <v>5280</v>
       </c>
       <c r="F75" t="n">
-        <v>79.8663</v>
+        <v>563.067</v>
       </c>
       <c r="G75" t="n">
-        <v>5304.083333333333</v>
+        <v>5304.333333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>5290</v>
       </c>
       <c r="C76" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="D76" t="n">
-        <v>5305</v>
+        <v>5290</v>
       </c>
       <c r="E76" t="n">
         <v>5290</v>
       </c>
       <c r="F76" t="n">
-        <v>1282.0678</v>
+        <v>79.8663</v>
       </c>
       <c r="G76" t="n">
         <v>5304.083333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="C77" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="D77" t="n">
-        <v>5300</v>
+        <v>5305</v>
       </c>
       <c r="E77" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="F77" t="n">
-        <v>8.0458</v>
+        <v>1282.0678</v>
       </c>
       <c r="G77" t="n">
-        <v>5304</v>
+        <v>5304.083333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="C78" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="D78" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="E78" t="n">
-        <v>5295</v>
+        <v>5300</v>
       </c>
       <c r="F78" t="n">
-        <v>5.9817</v>
+        <v>8.0458</v>
       </c>
       <c r="G78" t="n">
-        <v>5303.833333333333</v>
+        <v>5304</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>5295</v>
       </c>
       <c r="F79" t="n">
-        <v>21.5183</v>
+        <v>5.9817</v>
       </c>
       <c r="G79" t="n">
-        <v>5303.666666666667</v>
+        <v>5303.833333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>5295</v>
       </c>
       <c r="F80" t="n">
-        <v>47.2379</v>
+        <v>21.5183</v>
       </c>
       <c r="G80" t="n">
-        <v>5303.5</v>
+        <v>5303.666666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>5295</v>
       </c>
       <c r="F81" t="n">
-        <v>73.8373</v>
+        <v>47.2379</v>
       </c>
       <c r="G81" t="n">
-        <v>5303.333333333333</v>
+        <v>5303.5</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="C82" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="D82" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="E82" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="F82" t="n">
-        <v>18.9166</v>
+        <v>73.8373</v>
       </c>
       <c r="G82" t="n">
-        <v>5303</v>
+        <v>5303.333333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>5290</v>
       </c>
       <c r="F83" t="n">
-        <v>19.7916</v>
+        <v>18.9166</v>
       </c>
       <c r="G83" t="n">
-        <v>5302.666666666667</v>
+        <v>5303</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>5290</v>
       </c>
       <c r="F84" t="n">
-        <v>82.5581</v>
+        <v>19.7916</v>
       </c>
       <c r="G84" t="n">
-        <v>5302.166666666667</v>
+        <v>5302.666666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5295</v>
+        <v>5290</v>
       </c>
       <c r="C85" t="n">
-        <v>5295</v>
+        <v>5290</v>
       </c>
       <c r="D85" t="n">
-        <v>5295</v>
+        <v>5290</v>
       </c>
       <c r="E85" t="n">
-        <v>5295</v>
+        <v>5290</v>
       </c>
       <c r="F85" t="n">
-        <v>96.17570000000001</v>
+        <v>82.5581</v>
       </c>
       <c r="G85" t="n">
-        <v>5301.583333333333</v>
+        <v>5302.166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>5295</v>
       </c>
       <c r="C86" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="D86" t="n">
-        <v>5300</v>
+        <v>5295</v>
       </c>
       <c r="E86" t="n">
         <v>5295</v>
       </c>
       <c r="F86" t="n">
-        <v>21.2747</v>
+        <v>96.17570000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>5301.166666666667</v>
+        <v>5301.583333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,7 +2878,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="C87" t="n">
         <v>5300</v>
@@ -2627,15 +2887,18 @@
         <v>5300</v>
       </c>
       <c r="E87" t="n">
-        <v>5290</v>
+        <v>5295</v>
       </c>
       <c r="F87" t="n">
-        <v>399.889</v>
+        <v>21.2747</v>
       </c>
       <c r="G87" t="n">
-        <v>5300.5</v>
+        <v>5301.166666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,7 +2907,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="C88" t="n">
         <v>5300</v>
@@ -2653,15 +2916,18 @@
         <v>5300</v>
       </c>
       <c r="E88" t="n">
-        <v>5300</v>
+        <v>5290</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5594</v>
+        <v>399.889</v>
       </c>
       <c r="G88" t="n">
-        <v>5299.583333333333</v>
+        <v>5300.5</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>5300</v>
       </c>
       <c r="F89" t="n">
-        <v>223.1082</v>
+        <v>0.5594</v>
       </c>
       <c r="G89" t="n">
-        <v>5298.583333333333</v>
+        <v>5299.583333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>5300</v>
       </c>
       <c r="F90" t="n">
-        <v>144.9703</v>
+        <v>223.1082</v>
       </c>
       <c r="G90" t="n">
-        <v>5297.666666666667</v>
+        <v>5298.583333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>5300</v>
       </c>
       <c r="F91" t="n">
-        <v>141.4708</v>
+        <v>144.9703</v>
       </c>
       <c r="G91" t="n">
-        <v>5296.75</v>
+        <v>5297.666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>5300</v>
       </c>
       <c r="F92" t="n">
-        <v>95.408</v>
+        <v>141.4708</v>
       </c>
       <c r="G92" t="n">
-        <v>5296.083333333333</v>
+        <v>5296.75</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="C93" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D93" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E93" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="F93" t="n">
-        <v>25.4828</v>
+        <v>95.408</v>
       </c>
       <c r="G93" t="n">
-        <v>5295.166666666667</v>
+        <v>5296.083333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2803,21 +3084,24 @@
         <v>5285</v>
       </c>
       <c r="C94" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="D94" t="n">
         <v>5285</v>
       </c>
       <c r="E94" t="n">
-        <v>5280</v>
+        <v>5285</v>
       </c>
       <c r="F94" t="n">
-        <v>34.5172</v>
+        <v>25.4828</v>
       </c>
       <c r="G94" t="n">
-        <v>5294.166666666667</v>
+        <v>5295.166666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5270</v>
+        <v>5285</v>
       </c>
       <c r="C95" t="n">
-        <v>5270</v>
+        <v>5280</v>
       </c>
       <c r="D95" t="n">
-        <v>5270</v>
+        <v>5285</v>
       </c>
       <c r="E95" t="n">
-        <v>5265</v>
+        <v>5280</v>
       </c>
       <c r="F95" t="n">
-        <v>209.7811</v>
+        <v>34.5172</v>
       </c>
       <c r="G95" t="n">
-        <v>5293</v>
+        <v>5294.166666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5280</v>
+        <v>5270</v>
       </c>
       <c r="C96" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="D96" t="n">
-        <v>5280</v>
+        <v>5270</v>
       </c>
       <c r="E96" t="n">
         <v>5265</v>
       </c>
       <c r="F96" t="n">
-        <v>487.9947</v>
+        <v>209.7811</v>
       </c>
       <c r="G96" t="n">
-        <v>5292.166666666667</v>
+        <v>5293</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5260</v>
+        <v>5280</v>
       </c>
       <c r="C97" t="n">
         <v>5265</v>
       </c>
       <c r="D97" t="n">
+        <v>5280</v>
+      </c>
+      <c r="E97" t="n">
         <v>5265</v>
       </c>
-      <c r="E97" t="n">
-        <v>5260</v>
-      </c>
       <c r="F97" t="n">
-        <v>15.1722</v>
+        <v>487.9947</v>
       </c>
       <c r="G97" t="n">
-        <v>5291.5</v>
+        <v>5292.166666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>5260</v>
       </c>
       <c r="C98" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="D98" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="E98" t="n">
         <v>5260</v>
       </c>
       <c r="F98" t="n">
-        <v>199.0874</v>
+        <v>15.1722</v>
       </c>
       <c r="G98" t="n">
-        <v>5290.833333333333</v>
+        <v>5291.5</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="C99" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="D99" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="E99" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="F99" t="n">
-        <v>56.529</v>
+        <v>199.0874</v>
       </c>
       <c r="G99" t="n">
-        <v>5290.166666666667</v>
+        <v>5290.833333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="C100" t="n">
         <v>5245</v>
       </c>
       <c r="D100" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="E100" t="n">
         <v>5245</v>
       </c>
       <c r="F100" t="n">
-        <v>102.6487</v>
+        <v>56.529</v>
       </c>
       <c r="G100" t="n">
-        <v>5289.333333333333</v>
+        <v>5290.166666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C101" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="D101" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="E101" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="F101" t="n">
-        <v>26.0778</v>
+        <v>102.6487</v>
       </c>
       <c r="G101" t="n">
-        <v>5288.833333333333</v>
+        <v>5289.333333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="C102" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="D102" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="E102" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="F102" t="n">
-        <v>100</v>
+        <v>26.0778</v>
       </c>
       <c r="G102" t="n">
-        <v>5288.333333333333</v>
+        <v>5288.833333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="C103" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="D103" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="E103" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="F103" t="n">
-        <v>2339.742</v>
+        <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>5287.666666666667</v>
+        <v>5288.333333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>5250</v>
       </c>
       <c r="C104" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="D104" t="n">
-        <v>5270</v>
+        <v>5265</v>
       </c>
       <c r="E104" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="F104" t="n">
-        <v>3686.428</v>
+        <v>2339.742</v>
       </c>
       <c r="G104" t="n">
-        <v>5287.083333333333</v>
+        <v>5287.666666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3092,18 +3406,21 @@
         <v>5250</v>
       </c>
       <c r="D105" t="n">
-        <v>5250</v>
+        <v>5270</v>
       </c>
       <c r="E105" t="n">
         <v>5250</v>
       </c>
       <c r="F105" t="n">
-        <v>49.5292</v>
+        <v>3686.428</v>
       </c>
       <c r="G105" t="n">
-        <v>5286.583333333333</v>
+        <v>5287.083333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>5250</v>
       </c>
       <c r="F106" t="n">
-        <v>110.1057</v>
+        <v>49.5292</v>
       </c>
       <c r="G106" t="n">
-        <v>5286.083333333333</v>
+        <v>5286.583333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C107" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="D107" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="E107" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="F107" t="n">
-        <v>304.9293</v>
+        <v>110.1057</v>
       </c>
       <c r="G107" t="n">
-        <v>5285.666666666667</v>
+        <v>5286.083333333333</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>5255</v>
       </c>
       <c r="F108" t="n">
-        <v>309.61</v>
+        <v>304.9293</v>
       </c>
       <c r="G108" t="n">
-        <v>5285.25</v>
+        <v>5285.666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>5255</v>
       </c>
       <c r="F109" t="n">
-        <v>73.0086</v>
+        <v>309.61</v>
       </c>
       <c r="G109" t="n">
-        <v>5284.916666666667</v>
+        <v>5285.25</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="C110" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="D110" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="E110" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="F110" t="n">
-        <v>921.3878999999999</v>
+        <v>73.0086</v>
       </c>
       <c r="G110" t="n">
-        <v>5284.416666666667</v>
+        <v>5284.916666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5240</v>
+        <v>5260</v>
       </c>
       <c r="C111" t="n">
-        <v>5240</v>
+        <v>5245</v>
       </c>
       <c r="D111" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="E111" t="n">
-        <v>5240</v>
+        <v>5245</v>
       </c>
       <c r="F111" t="n">
-        <v>110.1</v>
+        <v>921.3878999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>5283.833333333333</v>
+        <v>5284.416666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5230</v>
+        <v>5240</v>
       </c>
       <c r="C112" t="n">
-        <v>5225</v>
+        <v>5240</v>
       </c>
       <c r="D112" t="n">
-        <v>5230</v>
+        <v>5250</v>
       </c>
       <c r="E112" t="n">
-        <v>5225</v>
+        <v>5240</v>
       </c>
       <c r="F112" t="n">
-        <v>5.0744</v>
+        <v>110.1</v>
       </c>
       <c r="G112" t="n">
-        <v>5283</v>
+        <v>5283.833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5245</v>
+        <v>5230</v>
       </c>
       <c r="C113" t="n">
-        <v>5245</v>
+        <v>5225</v>
       </c>
       <c r="D113" t="n">
-        <v>5245</v>
+        <v>5230</v>
       </c>
       <c r="E113" t="n">
-        <v>5245</v>
+        <v>5225</v>
       </c>
       <c r="F113" t="n">
-        <v>198.4556</v>
+        <v>5.0744</v>
       </c>
       <c r="G113" t="n">
-        <v>5282.416666666667</v>
+        <v>5283</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5230</v>
+        <v>5245</v>
       </c>
       <c r="C114" t="n">
-        <v>5230</v>
+        <v>5245</v>
       </c>
       <c r="D114" t="n">
-        <v>5230</v>
+        <v>5245</v>
       </c>
       <c r="E114" t="n">
-        <v>5230</v>
+        <v>5245</v>
       </c>
       <c r="F114" t="n">
-        <v>35.1716</v>
+        <v>198.4556</v>
       </c>
       <c r="G114" t="n">
-        <v>5281.583333333333</v>
+        <v>5282.416666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="C115" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="D115" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="E115" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="F115" t="n">
-        <v>17.5</v>
+        <v>35.1716</v>
       </c>
       <c r="G115" t="n">
-        <v>5280.333333333333</v>
+        <v>5281.583333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5245</v>
+        <v>5240</v>
       </c>
       <c r="C116" t="n">
         <v>5240</v>
       </c>
       <c r="D116" t="n">
-        <v>5245</v>
+        <v>5240</v>
       </c>
       <c r="E116" t="n">
         <v>5240</v>
       </c>
       <c r="F116" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="G116" t="n">
-        <v>5279.333333333333</v>
+        <v>5280.333333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5240</v>
+        <v>5245</v>
       </c>
       <c r="C117" t="n">
         <v>5240</v>
       </c>
       <c r="D117" t="n">
-        <v>5240</v>
+        <v>5245</v>
       </c>
       <c r="E117" t="n">
         <v>5240</v>
       </c>
       <c r="F117" t="n">
-        <v>6.0845</v>
+        <v>17.4</v>
       </c>
       <c r="G117" t="n">
-        <v>5278.333333333333</v>
+        <v>5279.333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3427,21 +3780,24 @@
         <v>5240</v>
       </c>
       <c r="C118" t="n">
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="D118" t="n">
         <v>5240</v>
       </c>
       <c r="E118" t="n">
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="F118" t="n">
-        <v>184.867</v>
+        <v>6.0845</v>
       </c>
       <c r="G118" t="n">
-        <v>5277.25</v>
+        <v>5278.333333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5255</v>
+        <v>5240</v>
       </c>
       <c r="C119" t="n">
-        <v>5255</v>
+        <v>5235</v>
       </c>
       <c r="D119" t="n">
-        <v>5255</v>
+        <v>5240</v>
       </c>
       <c r="E119" t="n">
-        <v>5255</v>
+        <v>5235</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4228353948620361</v>
+        <v>184.867</v>
       </c>
       <c r="G119" t="n">
-        <v>5276.5</v>
+        <v>5277.25</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="C120" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="D120" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="E120" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="F120" t="n">
-        <v>2.4028</v>
+        <v>0.4228353948620361</v>
       </c>
       <c r="G120" t="n">
-        <v>5275.666666666667</v>
+        <v>5276.5</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C121" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="D121" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="E121" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="F121" t="n">
-        <v>610.904</v>
+        <v>2.4028</v>
       </c>
       <c r="G121" t="n">
-        <v>5275</v>
+        <v>5275.666666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5270</v>
+        <v>5255</v>
       </c>
       <c r="C122" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="D122" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="E122" t="n">
-        <v>5270</v>
+        <v>5255</v>
       </c>
       <c r="F122" t="n">
-        <v>42.2912</v>
+        <v>610.904</v>
       </c>
       <c r="G122" t="n">
-        <v>5274.5</v>
+        <v>5275</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="C123" t="n">
-        <v>5245</v>
+        <v>5270</v>
       </c>
       <c r="D123" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="E123" t="n">
-        <v>5245</v>
+        <v>5270</v>
       </c>
       <c r="F123" t="n">
-        <v>990.7965</v>
+        <v>42.2912</v>
       </c>
       <c r="G123" t="n">
-        <v>5273.583333333333</v>
+        <v>5274.5</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="C124" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="D124" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="E124" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="F124" t="n">
-        <v>42.62</v>
+        <v>990.7965</v>
       </c>
       <c r="G124" t="n">
-        <v>5272.916666666667</v>
+        <v>5273.583333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3609,21 +3983,24 @@
         <v>5255</v>
       </c>
       <c r="C125" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="D125" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="E125" t="n">
         <v>5255</v>
       </c>
       <c r="F125" t="n">
-        <v>83.2298</v>
+        <v>42.62</v>
       </c>
       <c r="G125" t="n">
-        <v>5272.166666666667</v>
+        <v>5272.916666666667</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="C126" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="D126" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="E126" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="F126" t="n">
-        <v>3.0981</v>
+        <v>83.2298</v>
       </c>
       <c r="G126" t="n">
-        <v>5271.25</v>
+        <v>5272.166666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="C127" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="D127" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="E127" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="F127" t="n">
-        <v>5</v>
+        <v>3.0981</v>
       </c>
       <c r="G127" t="n">
-        <v>5270.5</v>
+        <v>5271.25</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3696,12 +4079,15 @@
         <v>5255</v>
       </c>
       <c r="F128" t="n">
-        <v>64.3164</v>
+        <v>5</v>
       </c>
       <c r="G128" t="n">
-        <v>5269.75</v>
+        <v>5270.5</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5275</v>
+        <v>5255</v>
       </c>
       <c r="C129" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="D129" t="n">
-        <v>5275</v>
+        <v>5255</v>
       </c>
       <c r="E129" t="n">
-        <v>5260</v>
+        <v>5255</v>
       </c>
       <c r="F129" t="n">
-        <v>177.8654</v>
+        <v>64.3164</v>
       </c>
       <c r="G129" t="n">
-        <v>5269.083333333333</v>
+        <v>5269.75</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3739,21 +4128,24 @@
         <v>5275</v>
       </c>
       <c r="C130" t="n">
-        <v>5280</v>
+        <v>5260</v>
       </c>
       <c r="D130" t="n">
-        <v>5280</v>
+        <v>5275</v>
       </c>
       <c r="E130" t="n">
-        <v>5275</v>
+        <v>5260</v>
       </c>
       <c r="F130" t="n">
-        <v>400</v>
+        <v>177.8654</v>
       </c>
       <c r="G130" t="n">
-        <v>5268.75</v>
+        <v>5269.083333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5270</v>
+        <v>5275</v>
       </c>
       <c r="C131" t="n">
-        <v>5270</v>
+        <v>5280</v>
       </c>
       <c r="D131" t="n">
-        <v>5270</v>
+        <v>5280</v>
       </c>
       <c r="E131" t="n">
-        <v>5270</v>
+        <v>5275</v>
       </c>
       <c r="F131" t="n">
-        <v>8.4968</v>
+        <v>400</v>
       </c>
       <c r="G131" t="n">
-        <v>5268.166666666667</v>
+        <v>5268.75</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>5270</v>
       </c>
       <c r="F132" t="n">
-        <v>1.5032</v>
+        <v>8.4968</v>
       </c>
       <c r="G132" t="n">
-        <v>5267.833333333333</v>
+        <v>5268.166666666667</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="C133" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="D133" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="E133" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="F133" t="n">
-        <v>3.72</v>
+        <v>1.5032</v>
       </c>
       <c r="G133" t="n">
-        <v>5267.416666666667</v>
+        <v>5267.833333333333</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>5260</v>
       </c>
       <c r="F134" t="n">
-        <v>59.293</v>
+        <v>3.72</v>
       </c>
       <c r="G134" t="n">
-        <v>5267</v>
+        <v>5267.416666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>5260</v>
       </c>
       <c r="F135" t="n">
-        <v>104.8539</v>
+        <v>59.293</v>
       </c>
       <c r="G135" t="n">
-        <v>5266.5</v>
+        <v>5267</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>5260</v>
       </c>
       <c r="F136" t="n">
-        <v>28.01</v>
+        <v>104.8539</v>
       </c>
       <c r="G136" t="n">
-        <v>5265.75</v>
+        <v>5266.5</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>5260</v>
       </c>
       <c r="F137" t="n">
-        <v>5.486</v>
+        <v>28.01</v>
       </c>
       <c r="G137" t="n">
-        <v>5265.083333333333</v>
+        <v>5265.75</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,21 +4360,24 @@
         <v>5260</v>
       </c>
       <c r="C138" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="D138" t="n">
         <v>5260</v>
       </c>
       <c r="E138" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="F138" t="n">
-        <v>4.8729</v>
+        <v>5.486</v>
       </c>
       <c r="G138" t="n">
-        <v>5264.416666666667</v>
+        <v>5265.083333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="C139" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="D139" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="E139" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="F139" t="n">
-        <v>18.7761</v>
+        <v>4.8729</v>
       </c>
       <c r="G139" t="n">
-        <v>5263.666666666667</v>
+        <v>5264.416666666667</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>5250</v>
       </c>
       <c r="F140" t="n">
-        <v>62.6175</v>
+        <v>18.7761</v>
       </c>
       <c r="G140" t="n">
-        <v>5262.916666666667</v>
+        <v>5263.666666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>5250</v>
       </c>
       <c r="F141" t="n">
-        <v>3.14</v>
+        <v>62.6175</v>
       </c>
       <c r="G141" t="n">
-        <v>5262.166666666667</v>
+        <v>5262.916666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>5250</v>
       </c>
       <c r="F142" t="n">
-        <v>6.3617</v>
+        <v>3.14</v>
       </c>
       <c r="G142" t="n">
-        <v>5261.5</v>
+        <v>5262.166666666667</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>5250</v>
       </c>
       <c r="F143" t="n">
-        <v>7.58</v>
+        <v>6.3617</v>
       </c>
       <c r="G143" t="n">
-        <v>5260.833333333333</v>
+        <v>5261.5</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>5250</v>
       </c>
       <c r="F144" t="n">
-        <v>103</v>
+        <v>7.58</v>
       </c>
       <c r="G144" t="n">
-        <v>5260.166666666667</v>
+        <v>5260.833333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>5250</v>
       </c>
       <c r="F145" t="n">
-        <v>50.1274</v>
+        <v>103</v>
       </c>
       <c r="G145" t="n">
-        <v>5259.416666666667</v>
+        <v>5260.166666666667</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>5250</v>
       </c>
       <c r="F146" t="n">
-        <v>13.6228</v>
+        <v>50.1274</v>
       </c>
       <c r="G146" t="n">
-        <v>5258.583333333333</v>
+        <v>5259.416666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>5250</v>
       </c>
       <c r="F147" t="n">
-        <v>159.6481</v>
+        <v>13.6228</v>
       </c>
       <c r="G147" t="n">
-        <v>5257.75</v>
+        <v>5258.583333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>5250</v>
       </c>
       <c r="F148" t="n">
-        <v>89.55719999999999</v>
+        <v>159.6481</v>
       </c>
       <c r="G148" t="n">
-        <v>5256.916666666667</v>
+        <v>5257.75</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>5250</v>
       </c>
       <c r="F149" t="n">
-        <v>20.0574</v>
+        <v>89.55719999999999</v>
       </c>
       <c r="G149" t="n">
-        <v>5256.083333333333</v>
+        <v>5256.916666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>5250</v>
       </c>
       <c r="F150" t="n">
-        <v>75.51179999999999</v>
+        <v>20.0574</v>
       </c>
       <c r="G150" t="n">
-        <v>5255.25</v>
+        <v>5256.083333333333</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="C151" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="D151" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="E151" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="F151" t="n">
-        <v>38.0237</v>
+        <v>75.51179999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>5254.583333333333</v>
+        <v>5255.25</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="C152" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="D152" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="E152" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="F152" t="n">
-        <v>42.0403</v>
+        <v>38.0237</v>
       </c>
       <c r="G152" t="n">
-        <v>5253.666666666667</v>
+        <v>5254.583333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="C153" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="D153" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="E153" t="n">
-        <v>5260</v>
+        <v>5245</v>
       </c>
       <c r="F153" t="n">
-        <v>124.9625</v>
+        <v>42.0403</v>
       </c>
       <c r="G153" t="n">
-        <v>5253.25</v>
+        <v>5253.666666666667</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="C154" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="D154" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="E154" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="F154" t="n">
-        <v>81.7838</v>
+        <v>124.9625</v>
       </c>
       <c r="G154" t="n">
-        <v>5253</v>
+        <v>5253.25</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,7 +4850,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="C155" t="n">
         <v>5265</v>
@@ -4395,15 +4859,18 @@
         <v>5265</v>
       </c>
       <c r="E155" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="F155" t="n">
-        <v>464.8278</v>
+        <v>81.7838</v>
       </c>
       <c r="G155" t="n">
-        <v>5252.916666666667</v>
+        <v>5253</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C156" t="n">
         <v>5265</v>
       </c>
-      <c r="C156" t="n">
-        <v>5270</v>
-      </c>
       <c r="D156" t="n">
-        <v>5270</v>
+        <v>5265</v>
       </c>
       <c r="E156" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="F156" t="n">
-        <v>131.0944</v>
+        <v>464.8278</v>
       </c>
       <c r="G156" t="n">
-        <v>5253</v>
+        <v>5252.916666666667</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5275</v>
+        <v>5265</v>
       </c>
       <c r="C157" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="D157" t="n">
-        <v>5300</v>
+        <v>5270</v>
       </c>
       <c r="E157" t="n">
-        <v>5275</v>
+        <v>5265</v>
       </c>
       <c r="F157" t="n">
-        <v>195.8567</v>
+        <v>131.0944</v>
       </c>
       <c r="G157" t="n">
-        <v>5253.583333333333</v>
+        <v>5253</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="C158" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="D158" t="n">
-        <v>5285</v>
+        <v>5300</v>
       </c>
       <c r="E158" t="n">
-        <v>5285</v>
+        <v>5275</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9442</v>
+        <v>195.8567</v>
       </c>
       <c r="G158" t="n">
-        <v>5254</v>
+        <v>5253.583333333333</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="C159" t="n">
-        <v>5320</v>
+        <v>5285</v>
       </c>
       <c r="D159" t="n">
-        <v>5320</v>
+        <v>5285</v>
       </c>
       <c r="E159" t="n">
-        <v>5300</v>
+        <v>5285</v>
       </c>
       <c r="F159" t="n">
-        <v>98.0565</v>
+        <v>0.9442</v>
       </c>
       <c r="G159" t="n">
-        <v>5255.25</v>
+        <v>5254</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="C160" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="D160" t="n">
-        <v>5305</v>
+        <v>5320</v>
       </c>
       <c r="E160" t="n">
-        <v>5305</v>
+        <v>5300</v>
       </c>
       <c r="F160" t="n">
-        <v>138.2</v>
+        <v>98.0565</v>
       </c>
       <c r="G160" t="n">
-        <v>5256.25</v>
+        <v>5255.25</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="C161" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="D161" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="E161" t="n">
-        <v>5285</v>
+        <v>5305</v>
       </c>
       <c r="F161" t="n">
-        <v>98.59999999999999</v>
+        <v>138.2</v>
       </c>
       <c r="G161" t="n">
-        <v>5256.75</v>
+        <v>5256.25</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,532 +5065,15 @@
         <v>5285</v>
       </c>
       <c r="F162" t="n">
-        <v>159.7739</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G162" t="n">
-        <v>5257.166666666667</v>
+        <v>5256.75</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>5305</v>
-      </c>
-      <c r="C163" t="n">
-        <v>5305</v>
-      </c>
-      <c r="D163" t="n">
-        <v>5305</v>
-      </c>
-      <c r="E163" t="n">
-        <v>5305</v>
-      </c>
-      <c r="F163" t="n">
-        <v>100.637</v>
-      </c>
-      <c r="G163" t="n">
-        <v>5258.166666666667</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>5300</v>
-      </c>
-      <c r="C164" t="n">
-        <v>5310</v>
-      </c>
-      <c r="D164" t="n">
-        <v>5310</v>
-      </c>
-      <c r="E164" t="n">
-        <v>5280</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1320.2635</v>
-      </c>
-      <c r="G164" t="n">
-        <v>5259.166666666667</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>5315</v>
-      </c>
-      <c r="C165" t="n">
-        <v>5345</v>
-      </c>
-      <c r="D165" t="n">
-        <v>5345</v>
-      </c>
-      <c r="E165" t="n">
-        <v>5315</v>
-      </c>
-      <c r="F165" t="n">
-        <v>417.5425</v>
-      </c>
-      <c r="G165" t="n">
-        <v>5260.75</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>5345</v>
-      </c>
-      <c r="C166" t="n">
-        <v>5350</v>
-      </c>
-      <c r="D166" t="n">
-        <v>5350</v>
-      </c>
-      <c r="E166" t="n">
-        <v>5345</v>
-      </c>
-      <c r="F166" t="n">
-        <v>49.667</v>
-      </c>
-      <c r="G166" t="n">
-        <v>5262.416666666667</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>5350</v>
-      </c>
-      <c r="C167" t="n">
-        <v>5340</v>
-      </c>
-      <c r="D167" t="n">
-        <v>5350</v>
-      </c>
-      <c r="E167" t="n">
-        <v>5340</v>
-      </c>
-      <c r="F167" t="n">
-        <v>375.084</v>
-      </c>
-      <c r="G167" t="n">
-        <v>5263.833333333333</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>5340</v>
-      </c>
-      <c r="C168" t="n">
-        <v>5340</v>
-      </c>
-      <c r="D168" t="n">
-        <v>5340</v>
-      </c>
-      <c r="E168" t="n">
-        <v>5340</v>
-      </c>
-      <c r="F168" t="n">
-        <v>590.9604</v>
-      </c>
-      <c r="G168" t="n">
-        <v>5265.25</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>5330</v>
-      </c>
-      <c r="C169" t="n">
-        <v>5345</v>
-      </c>
-      <c r="D169" t="n">
-        <v>5345</v>
-      </c>
-      <c r="E169" t="n">
-        <v>5330</v>
-      </c>
-      <c r="F169" t="n">
-        <v>140.7102</v>
-      </c>
-      <c r="G169" t="n">
-        <v>5266.75</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>5355</v>
-      </c>
-      <c r="C170" t="n">
-        <v>5360</v>
-      </c>
-      <c r="D170" t="n">
-        <v>5360</v>
-      </c>
-      <c r="E170" t="n">
-        <v>5355</v>
-      </c>
-      <c r="F170" t="n">
-        <v>297.5</v>
-      </c>
-      <c r="G170" t="n">
-        <v>5268.666666666667</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>5370</v>
-      </c>
-      <c r="C171" t="n">
-        <v>5370</v>
-      </c>
-      <c r="D171" t="n">
-        <v>5370</v>
-      </c>
-      <c r="E171" t="n">
-        <v>5370</v>
-      </c>
-      <c r="F171" t="n">
-        <v>18.6402</v>
-      </c>
-      <c r="G171" t="n">
-        <v>5270.833333333333</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>5365</v>
-      </c>
-      <c r="C172" t="n">
-        <v>5370</v>
-      </c>
-      <c r="D172" t="n">
-        <v>5370</v>
-      </c>
-      <c r="E172" t="n">
-        <v>5365</v>
-      </c>
-      <c r="F172" t="n">
-        <v>337.5189</v>
-      </c>
-      <c r="G172" t="n">
-        <v>5273.25</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>5375</v>
-      </c>
-      <c r="C173" t="n">
-        <v>5420</v>
-      </c>
-      <c r="D173" t="n">
-        <v>5420</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5375</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1418.177</v>
-      </c>
-      <c r="G173" t="n">
-        <v>5276.166666666667</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>5440</v>
-      </c>
-      <c r="C174" t="n">
-        <v>5490</v>
-      </c>
-      <c r="D174" t="n">
-        <v>5490</v>
-      </c>
-      <c r="E174" t="n">
-        <v>5440</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1011.464</v>
-      </c>
-      <c r="G174" t="n">
-        <v>5280.5</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>5465</v>
-      </c>
-      <c r="C175" t="n">
-        <v>5505</v>
-      </c>
-      <c r="D175" t="n">
-        <v>5505</v>
-      </c>
-      <c r="E175" t="n">
-        <v>5465</v>
-      </c>
-      <c r="F175" t="n">
-        <v>930.5196</v>
-      </c>
-      <c r="G175" t="n">
-        <v>5284.916666666667</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>5505</v>
-      </c>
-      <c r="C176" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D176" t="n">
-        <v>5505</v>
-      </c>
-      <c r="E176" t="n">
-        <v>5490</v>
-      </c>
-      <c r="F176" t="n">
-        <v>258.9835</v>
-      </c>
-      <c r="G176" t="n">
-        <v>5289.25</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5495</v>
-      </c>
-      <c r="C177" t="n">
-        <v>5455</v>
-      </c>
-      <c r="D177" t="n">
-        <v>5500</v>
-      </c>
-      <c r="E177" t="n">
-        <v>5455</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1325.918</v>
-      </c>
-      <c r="G177" t="n">
-        <v>5292.833333333333</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5475</v>
-      </c>
-      <c r="C178" t="n">
-        <v>5510</v>
-      </c>
-      <c r="D178" t="n">
-        <v>5510</v>
-      </c>
-      <c r="E178" t="n">
-        <v>5475</v>
-      </c>
-      <c r="F178" t="n">
-        <v>560.3982447488585</v>
-      </c>
-      <c r="G178" t="n">
-        <v>5297.416666666667</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5510</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5515</v>
-      </c>
-      <c r="D179" t="n">
-        <v>5515</v>
-      </c>
-      <c r="E179" t="n">
-        <v>5510</v>
-      </c>
-      <c r="F179" t="n">
-        <v>356.1987</v>
-      </c>
-      <c r="G179" t="n">
-        <v>5301.75</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5500</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5475</v>
-      </c>
-      <c r="D180" t="n">
-        <v>5500</v>
-      </c>
-      <c r="E180" t="n">
-        <v>5450</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1354.3768</v>
-      </c>
-      <c r="G180" t="n">
-        <v>5305.5</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5465</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5470</v>
-      </c>
-      <c r="D181" t="n">
-        <v>5470</v>
-      </c>
-      <c r="E181" t="n">
-        <v>5450</v>
-      </c>
-      <c r="F181" t="n">
-        <v>705.3532</v>
-      </c>
-      <c r="G181" t="n">
-        <v>5309</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5470</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5450</v>
-      </c>
-      <c r="D182" t="n">
-        <v>5470</v>
-      </c>
-      <c r="E182" t="n">
-        <v>5450</v>
-      </c>
-      <c r="F182" t="n">
-        <v>32.4196</v>
-      </c>
-      <c r="G182" t="n">
-        <v>5312</v>
-      </c>
-      <c r="H182" t="n">
+      <c r="I162" t="n">
         <v>1</v>
       </c>
     </row>
